--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.8365607285403</v>
+        <v>495.9089817514445</v>
       </c>
       <c r="AB2" t="n">
-        <v>607.2767630759135</v>
+        <v>678.5245467925331</v>
       </c>
       <c r="AC2" t="n">
-        <v>549.3191211262375</v>
+        <v>613.7671163618356</v>
       </c>
       <c r="AD2" t="n">
-        <v>443836.5607285403</v>
+        <v>495908.9817514445</v>
       </c>
       <c r="AE2" t="n">
-        <v>607276.7630759135</v>
+        <v>678524.5467925331</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101109220212084e-06</v>
+        <v>3.552029385826095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.644097222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>549319.1211262376</v>
+        <v>613767.1163618356</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.3921805670288</v>
+        <v>252.5503818347503</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.918548585345</v>
+        <v>345.5505741626455</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.0084274573023</v>
+        <v>312.5717123479425</v>
       </c>
       <c r="AD3" t="n">
-        <v>221392.1805670288</v>
+        <v>252550.3818347503</v>
       </c>
       <c r="AE3" t="n">
-        <v>302918.548585345</v>
+        <v>345550.5741626455</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.272759575901803e-06</v>
+        <v>5.532762444959212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.19140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>274008.4274573023</v>
+        <v>312571.7123479425</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.9816661849298</v>
+        <v>207.2251187986718</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.7858794372845</v>
+        <v>283.5345496672342</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.8056130489641</v>
+        <v>256.4744101903165</v>
       </c>
       <c r="AD4" t="n">
-        <v>175981.6661849298</v>
+        <v>207225.1187986718</v>
       </c>
       <c r="AE4" t="n">
-        <v>240785.8794372845</v>
+        <v>283534.5496672342</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.667604532010801e-06</v>
+        <v>6.200267433968212e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.525173611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>217805.6130489641</v>
+        <v>256474.4101903165</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.2950926915057</v>
+        <v>207.5385453052477</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.2147234109831</v>
+        <v>283.9633936409327</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.1935287556993</v>
+        <v>256.8623258970517</v>
       </c>
       <c r="AD5" t="n">
-        <v>176295.0926915057</v>
+        <v>207538.5453052477</v>
       </c>
       <c r="AE5" t="n">
-        <v>241214.7234109831</v>
+        <v>283963.3936409327</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.66891165648125e-06</v>
+        <v>6.202477192740057e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.523003472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>218193.5287556993</v>
+        <v>256862.3258970517</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.0175420437993</v>
+        <v>357.2945620732192</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.757386851212</v>
+        <v>488.8661825521809</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.3601906324475</v>
+        <v>442.2094802173965</v>
       </c>
       <c r="AD2" t="n">
-        <v>317017.5420437993</v>
+        <v>357294.5620732192</v>
       </c>
       <c r="AE2" t="n">
-        <v>433757.386851212</v>
+        <v>488866.182552181</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.587631654563965e-06</v>
+        <v>4.481237230052476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.101128472222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>392360.1906324475</v>
+        <v>442209.4802173965</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.640998760405</v>
+        <v>199.9127022919851</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.1102985365497</v>
+        <v>273.5293788017421</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.9580174131385</v>
+        <v>247.4241187898783</v>
       </c>
       <c r="AD3" t="n">
-        <v>169640.998760405</v>
+        <v>199912.702291985</v>
       </c>
       <c r="AE3" t="n">
-        <v>232110.2985365497</v>
+        <v>273529.3788017421</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.69112505359324e-06</v>
+        <v>6.392257175308328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.679253472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>209958.0174131385</v>
+        <v>247424.1187898783</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.7964312198639</v>
+        <v>196.0681347514439</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.8499916172346</v>
+        <v>268.2690718824271</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.199746803314</v>
+        <v>242.6658481800539</v>
       </c>
       <c r="AD4" t="n">
-        <v>165796.4312198639</v>
+        <v>196068.1347514439</v>
       </c>
       <c r="AE4" t="n">
-        <v>226849.9916172346</v>
+        <v>268269.071882427</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.750042425445131e-06</v>
+        <v>6.49428975006597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>205199.746803314</v>
+        <v>242665.8481800539</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.4429604135729</v>
+        <v>186.7038059056981</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.1568925647219</v>
+        <v>255.4563840306522</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.3363049235292</v>
+        <v>231.075985274128</v>
       </c>
       <c r="AD2" t="n">
-        <v>159442.9604135729</v>
+        <v>186703.8059056981</v>
       </c>
       <c r="AE2" t="n">
-        <v>218156.8925647219</v>
+        <v>255456.3840306522</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.682158305084437e-06</v>
+        <v>6.96743587583275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.351996527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>197336.3049235292</v>
+        <v>231075.985274128</v>
       </c>
     </row>
     <row r="3">
@@ -3207,28 +3207,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.3074079999438</v>
+        <v>187.568253492069</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.3396678891299</v>
+        <v>256.6391593550602</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.4061978310117</v>
+        <v>232.1458781816105</v>
       </c>
       <c r="AD3" t="n">
-        <v>160307.4079999438</v>
+        <v>187568.253492069</v>
       </c>
       <c r="AE3" t="n">
-        <v>219339.66788913</v>
+        <v>256639.1593550602</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.681834977851443e-06</v>
+        <v>6.966824071131227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.351996527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>198406.1978310117</v>
+        <v>232145.8781816105</v>
       </c>
     </row>
   </sheetData>
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.1274359409721</v>
+        <v>204.5320769318685</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.9853280484093</v>
+        <v>279.8498109764537</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.986026564571</v>
+        <v>253.1413377886197</v>
       </c>
       <c r="AD2" t="n">
-        <v>176127.4359409721</v>
+        <v>204532.0769318685</v>
       </c>
       <c r="AE2" t="n">
-        <v>240985.3280484093</v>
+        <v>279849.8109764537</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.575600303022503e-06</v>
+        <v>6.51396722189756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.258680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>217986.026564571</v>
+        <v>253141.3377886197</v>
       </c>
     </row>
     <row r="3">
@@ -3610,28 +3610,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.4454858010186</v>
+        <v>182.9353781379356</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.3191273268089</v>
+        <v>250.3002549075026</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.1511264030566</v>
+        <v>226.4119498778174</v>
       </c>
       <c r="AD3" t="n">
-        <v>154445.4858010186</v>
+        <v>182935.3781379356</v>
       </c>
       <c r="AE3" t="n">
-        <v>211319.1273268089</v>
+        <v>250300.2549075026</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.771088586263965e-06</v>
+        <v>6.870104418838585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.933159722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>191151.1264030566</v>
+        <v>226411.9498778174</v>
       </c>
     </row>
   </sheetData>
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.934878308256</v>
+        <v>195.0601373219531</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.8299563301128</v>
+        <v>266.8898853296904</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.9451324278023</v>
+        <v>241.4182892562095</v>
       </c>
       <c r="AD2" t="n">
-        <v>159934.878308256</v>
+        <v>195060.1373219531</v>
       </c>
       <c r="AE2" t="n">
-        <v>218829.9563301128</v>
+        <v>266889.8853296904</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.502084658567967e-06</v>
+        <v>6.862957557478407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>197945.1324278023</v>
+        <v>241418.2892562095</v>
       </c>
     </row>
   </sheetData>
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.55715924868</v>
+        <v>383.1747338627238</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.7018178393205</v>
+        <v>524.2765753471797</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.9695741718679</v>
+        <v>474.240354822839</v>
       </c>
       <c r="AD2" t="n">
-        <v>342557.1592486801</v>
+        <v>383174.7338627238</v>
       </c>
       <c r="AE2" t="n">
-        <v>468701.8178393205</v>
+        <v>524276.5753471797</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.45632126150015e-06</v>
+        <v>4.226054569476181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.45703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>423969.5741718679</v>
+        <v>474240.354822839</v>
       </c>
     </row>
     <row r="3">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.25556710587</v>
+        <v>208.7826865759179</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.897130994742</v>
+        <v>285.6656826151019</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.6199311244479</v>
+        <v>258.4021508007042</v>
       </c>
       <c r="AD3" t="n">
-        <v>178255.56710587</v>
+        <v>208782.6865759179</v>
       </c>
       <c r="AE3" t="n">
-        <v>243897.130994742</v>
+        <v>285665.6826151019</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.594028163307911e-06</v>
+        <v>6.183457913439779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.779079861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>220619.9311244479</v>
+        <v>258402.1508007043</v>
       </c>
     </row>
     <row r="4">
@@ -4416,28 +4416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.8367998714976</v>
+        <v>198.3639193415455</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.6417140211105</v>
+        <v>271.4102656414704</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.7250311391718</v>
+        <v>245.5072508154283</v>
       </c>
       <c r="AD4" t="n">
-        <v>167836.7998714976</v>
+        <v>198363.9193415455</v>
       </c>
       <c r="AE4" t="n">
-        <v>229641.7140211105</v>
+        <v>271410.2656414704</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.735116836811583e-06</v>
+        <v>6.426198324764224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.562065972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>207725.0311391718</v>
+        <v>245507.2508154282</v>
       </c>
     </row>
   </sheetData>
@@ -4713,28 +4713,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.4571782842003</v>
+        <v>204.7564880152927</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.2270313683051</v>
+        <v>280.1568601211128</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.9681708307758</v>
+        <v>253.4190825938588</v>
       </c>
       <c r="AD2" t="n">
-        <v>170457.1782842003</v>
+        <v>204756.4880152927</v>
       </c>
       <c r="AE2" t="n">
-        <v>233227.0313683051</v>
+        <v>280156.8601211128</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.343526333746656e-06</v>
+        <v>6.702634759401087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>210968.1708307758</v>
+        <v>253419.0825938588</v>
       </c>
     </row>
   </sheetData>
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.7767824292614</v>
+        <v>269.2196271707603</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.0731719246306</v>
+        <v>368.3581710267403</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.7623288498302</v>
+        <v>333.2025841778874</v>
       </c>
       <c r="AD2" t="n">
-        <v>239776.7824292614</v>
+        <v>269219.6271707603</v>
       </c>
       <c r="AE2" t="n">
-        <v>328073.1719246306</v>
+        <v>368358.1710267402</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.038341920855431e-06</v>
+        <v>5.381129311603857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.107204861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>296762.3288498301</v>
+        <v>333202.5841778874</v>
       </c>
     </row>
     <row r="3">
@@ -5116,28 +5116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.551463794519</v>
+        <v>188.9942190274634</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.3053516773636</v>
+        <v>258.5902283097454</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.470595306824</v>
+        <v>233.9107398536036</v>
       </c>
       <c r="AD3" t="n">
-        <v>159551.463794519</v>
+        <v>188994.2190274634</v>
       </c>
       <c r="AE3" t="n">
-        <v>218305.3516773636</v>
+        <v>258590.2283097454</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.778621809144555e-06</v>
+        <v>6.692220001667432e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>197470.595306824</v>
+        <v>233910.7398536036</v>
       </c>
     </row>
   </sheetData>
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.6885464667737</v>
+        <v>321.6973132420762</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.4186964974416</v>
+        <v>440.1604562616288</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.634877042263</v>
+        <v>398.1521600850984</v>
       </c>
       <c r="AD2" t="n">
-        <v>281688.5464667737</v>
+        <v>321697.3132420762</v>
       </c>
       <c r="AE2" t="n">
-        <v>385418.6964974416</v>
+        <v>440160.4562616288</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.735649169323018e-06</v>
+        <v>4.770733276590476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>348634.877042263</v>
+        <v>398152.1600850985</v>
       </c>
     </row>
     <row r="3">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.0069206129349</v>
+        <v>195.0134956944114</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.7697483740852</v>
+        <v>266.8260681972045</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.2226004591595</v>
+        <v>241.3605627412801</v>
       </c>
       <c r="AD3" t="n">
-        <v>165006.9206129349</v>
+        <v>195013.4956944114</v>
       </c>
       <c r="AE3" t="n">
-        <v>225769.7483740852</v>
+        <v>266826.0681972045</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.7346676455993e-06</v>
+        <v>6.512934265717823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.666232638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>204222.6004591594</v>
+        <v>241360.5627412801</v>
       </c>
     </row>
     <row r="4">
@@ -5625,28 +5625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.0434286132851</v>
+        <v>194.0500036947616</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.4514561138978</v>
+        <v>265.5077759370172</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.0301241620492</v>
+        <v>240.1680864441698</v>
       </c>
       <c r="AD4" t="n">
-        <v>164043.4286132851</v>
+        <v>194050.0036947616</v>
       </c>
       <c r="AE4" t="n">
-        <v>224451.4561138978</v>
+        <v>265507.7759370172</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.757385906869296e-06</v>
+        <v>6.552552929632198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.631510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>203030.1241620491</v>
+        <v>240168.0864441698</v>
       </c>
     </row>
   </sheetData>
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.8849368125792</v>
+        <v>463.4014712312338</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.5591416279335</v>
+        <v>634.0463367686326</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.7738481111858</v>
+        <v>573.5338442770562</v>
       </c>
       <c r="AD2" t="n">
-        <v>411884.9368125792</v>
+        <v>463401.4712312338</v>
       </c>
       <c r="AE2" t="n">
-        <v>563559.1416279335</v>
+        <v>634046.3367686326</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.210418056826696e-06</v>
+        <v>3.757564198101022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.240451388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>509773.8481111858</v>
+        <v>573533.8442770563</v>
       </c>
     </row>
     <row r="3">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.5825922690709</v>
+        <v>240.5096168945979</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.7601488738218</v>
+        <v>329.0758683704785</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.3921627357853</v>
+        <v>297.6693293541799</v>
       </c>
       <c r="AD3" t="n">
-        <v>209582.5922690709</v>
+        <v>240509.6168945979</v>
       </c>
       <c r="AE3" t="n">
-        <v>286760.1488738218</v>
+        <v>329075.8683704785</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.382776286225518e-06</v>
+        <v>5.750495488420961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.037326388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>259392.1627357854</v>
+        <v>297669.3293541799</v>
       </c>
     </row>
     <row r="4">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.2038774328771</v>
+        <v>204.2161534044247</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.9851863193372</v>
+        <v>279.417550468643</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.3676527478862</v>
+        <v>252.7503316169929</v>
       </c>
       <c r="AD4" t="n">
-        <v>173203.8774328771</v>
+        <v>204216.1534044248</v>
       </c>
       <c r="AE4" t="n">
-        <v>236985.1863193372</v>
+        <v>279417.550468643</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.688076928127243e-06</v>
+        <v>6.269486345432913e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.538194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>214367.6527478862</v>
+        <v>252750.3316169929</v>
       </c>
     </row>
     <row r="5">
@@ -6240,28 +6240,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.623880966349</v>
+        <v>204.6361569378966</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.5598536830813</v>
+        <v>279.9922178323872</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.8874746649854</v>
+        <v>253.2701535340921</v>
       </c>
       <c r="AD5" t="n">
-        <v>173623.880966349</v>
+        <v>204636.1569378966</v>
       </c>
       <c r="AE5" t="n">
-        <v>237559.8536830813</v>
+        <v>279992.2178323871</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.686665242051865e-06</v>
+        <v>6.267086572666212e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>214887.4746649854</v>
+        <v>253270.1535340921</v>
       </c>
     </row>
   </sheetData>
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.0856733345952</v>
+        <v>220.9954532726284</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.8200924780995</v>
+        <v>302.3757287987737</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.7369117223829</v>
+        <v>273.5174136293089</v>
       </c>
       <c r="AD2" t="n">
-        <v>192085.6733345952</v>
+        <v>220995.4532726284</v>
       </c>
       <c r="AE2" t="n">
-        <v>262820.0924780995</v>
+        <v>302375.7287987737</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.393196041436337e-06</v>
+        <v>6.118735428425741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.512586805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>237736.9117223829</v>
+        <v>273517.4136293089</v>
       </c>
     </row>
     <row r="3">
@@ -6643,28 +6643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.9409367179078</v>
+        <v>184.7653758013693</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.3652692459337</v>
+        <v>252.8041384444103</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.001987409199</v>
+        <v>228.6768662841861</v>
       </c>
       <c r="AD3" t="n">
-        <v>155940.9367179078</v>
+        <v>184765.3758013693</v>
       </c>
       <c r="AE3" t="n">
-        <v>213365.2692459337</v>
+        <v>252804.1384444103</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.776021291707907e-06</v>
+        <v>6.809059946410581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>193001.987409199</v>
+        <v>228676.8662841861</v>
       </c>
     </row>
   </sheetData>
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.2198438571056</v>
+        <v>187.8897540095135</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.2198587658415</v>
+        <v>257.0790505466293</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.2978231222966</v>
+        <v>232.5437867752476</v>
       </c>
       <c r="AD2" t="n">
-        <v>160219.8438571056</v>
+        <v>187889.7540095135</v>
       </c>
       <c r="AE2" t="n">
-        <v>219219.8587658415</v>
+        <v>257079.0505466294</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.727398399967186e-06</v>
+        <v>6.954133978508997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.174045138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>198297.8231222967</v>
+        <v>232543.7867752476</v>
       </c>
     </row>
     <row r="3">
@@ -7046,28 +7046,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.6298969985248</v>
+        <v>188.2998071509326</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.7809115641987</v>
+        <v>257.6401033449866</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.8053298290214</v>
+        <v>233.0512934819723</v>
       </c>
       <c r="AD3" t="n">
-        <v>160629.8969985248</v>
+        <v>188299.8071509326</v>
       </c>
       <c r="AE3" t="n">
-        <v>219780.9115641987</v>
+        <v>257640.1033449866</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.734822440029718e-06</v>
+        <v>6.967984864225192e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.163194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>198805.3298290214</v>
+        <v>233051.2934819723</v>
       </c>
     </row>
   </sheetData>
@@ -11796,28 +11796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.8306407240774</v>
+        <v>185.8164495181268</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.3190897519165</v>
+        <v>254.2422638737769</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.578460835314</v>
+        <v>229.9777390409961</v>
       </c>
       <c r="AD2" t="n">
-        <v>158830.6407240774</v>
+        <v>185816.4495181268</v>
       </c>
       <c r="AE2" t="n">
-        <v>217319.0897519165</v>
+        <v>254242.2638737769</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.614785155947511e-06</v>
+        <v>6.95136590416191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.586371527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>196578.4608353139</v>
+        <v>229977.7390409961</v>
       </c>
     </row>
   </sheetData>
@@ -12093,28 +12093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.0748561678654</v>
+        <v>218.597871822255</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.2275831351603</v>
+        <v>299.0952520845459</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.0598980079594</v>
+        <v>270.5500210085079</v>
       </c>
       <c r="AD2" t="n">
-        <v>185074.8561678655</v>
+        <v>218597.871822255</v>
       </c>
       <c r="AE2" t="n">
-        <v>253227.5831351603</v>
+        <v>299095.2520845459</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.06267039852706e-06</v>
+        <v>6.317061885559673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.344184027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>229059.8980079594</v>
+        <v>270550.0210085079</v>
       </c>
     </row>
   </sheetData>
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.7915264884688</v>
+        <v>300.2618381686261</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.8264718516687</v>
+        <v>410.8314935997159</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.7714541872433</v>
+        <v>371.622312456181</v>
       </c>
       <c r="AD2" t="n">
-        <v>260791.5264884687</v>
+        <v>300261.8381686261</v>
       </c>
       <c r="AE2" t="n">
-        <v>356826.4718516687</v>
+        <v>410831.4935997159</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.87679780163637e-06</v>
+        <v>5.05442025420061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.428385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>322771.4541872432</v>
+        <v>371622.312456181</v>
       </c>
     </row>
     <row r="3">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.3420210644746</v>
+        <v>191.0726989750363</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.7552711279272</v>
+        <v>261.434096270077</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.6866978835102</v>
+        <v>236.4831930471958</v>
       </c>
       <c r="AD3" t="n">
-        <v>161342.0210644746</v>
+        <v>191072.6989750363</v>
       </c>
       <c r="AE3" t="n">
-        <v>220755.2711279272</v>
+        <v>261434.096270077</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.770276268560232e-06</v>
+        <v>6.624226674847656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.668402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>199686.6978835102</v>
+        <v>236483.1930471958</v>
       </c>
     </row>
     <row r="4">
@@ -12602,28 +12602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.0463221516883</v>
+        <v>191.7770000622501</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.7189269470236</v>
+        <v>262.3977520891734</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.5583837437318</v>
+        <v>237.3548789074173</v>
       </c>
       <c r="AD4" t="n">
-        <v>162046.3221516883</v>
+        <v>191777.0000622501</v>
       </c>
       <c r="AE4" t="n">
-        <v>221718.9269470236</v>
+        <v>262397.7520891734</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.769094548996352e-06</v>
+        <v>6.622150440190126e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.670572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>200558.3837437318</v>
+        <v>237354.8789074174</v>
       </c>
     </row>
   </sheetData>
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.5674508628538</v>
+        <v>420.77164387036</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.6584904357994</v>
+        <v>575.7183262782348</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.3991538047547</v>
+        <v>520.7725772439851</v>
       </c>
       <c r="AD2" t="n">
-        <v>369567.4508628538</v>
+        <v>420771.64387036</v>
       </c>
       <c r="AE2" t="n">
-        <v>505658.4904357994</v>
+        <v>575718.3262782348</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.334612071347494e-06</v>
+        <v>3.99192646724237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.821614583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>457399.1538047547</v>
+        <v>520772.5772439851</v>
       </c>
     </row>
     <row r="3">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.4121590582541</v>
+        <v>220.1858793755003</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.1620722980858</v>
+        <v>301.268034076844</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.4280078542851</v>
+        <v>272.5154357369805</v>
       </c>
       <c r="AD3" t="n">
-        <v>189412.1590582541</v>
+        <v>220185.8793755003</v>
       </c>
       <c r="AE3" t="n">
-        <v>259162.0722980858</v>
+        <v>301268.034076844</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.476201503845274e-06</v>
+        <v>5.943917175352512e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.924479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>234428.0078542851</v>
+        <v>272515.4357369805</v>
       </c>
     </row>
     <row r="4">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.577540591458</v>
+        <v>201.3512609087043</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.3917163871054</v>
+        <v>275.4976781658635</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.1171385425187</v>
+        <v>249.2045664252141</v>
       </c>
       <c r="AD4" t="n">
-        <v>170577.540591458</v>
+        <v>201351.2609087043</v>
       </c>
       <c r="AE4" t="n">
-        <v>233391.7163871054</v>
+        <v>275497.6781658635</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.711446741015846e-06</v>
+        <v>6.346160314621427e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.549045138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>211117.1385425187</v>
+        <v>249204.5664252141</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.7243839887409</v>
+        <v>257.3287749764561</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.5318633782834</v>
+        <v>352.0885824669513</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.2312785226317</v>
+        <v>318.4857423158398</v>
       </c>
       <c r="AD2" t="n">
-        <v>216724.3839887409</v>
+        <v>257328.7749764561</v>
       </c>
       <c r="AE2" t="n">
-        <v>296531.8633782834</v>
+        <v>352088.5824669513</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.56916606172672e-06</v>
+        <v>5.506906203662195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>268231.2785226317</v>
+        <v>318485.7423158398</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.3690500269735</v>
+        <v>192.4185306061908</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.8969856975091</v>
+        <v>263.2755224817228</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.4331330275053</v>
+        <v>238.1488761256606</v>
       </c>
       <c r="AD2" t="n">
-        <v>164369.0500269735</v>
+        <v>192418.5306061908</v>
       </c>
       <c r="AE2" t="n">
-        <v>224896.9856975091</v>
+        <v>263275.5224817228</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.709125080326492e-06</v>
+        <v>6.833812724763866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.115451388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>203433.1330275053</v>
+        <v>238148.8761256606</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.8352707080274</v>
+        <v>189.8847512872447</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.4301570508744</v>
+        <v>259.8086938350881</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.2971736411798</v>
+        <v>235.0129167393351</v>
       </c>
       <c r="AD3" t="n">
-        <v>161835.2707080274</v>
+        <v>189884.7512872447</v>
       </c>
       <c r="AE3" t="n">
-        <v>221430.1570508744</v>
+        <v>259808.6938350881</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.762844164330093e-06</v>
+        <v>6.932786512888086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.026475694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>200297.1736411798</v>
+        <v>235012.9167393351</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.7839758244393</v>
+        <v>248.5536919334766</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.0356907386922</v>
+        <v>340.0821267182113</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.641407271798</v>
+        <v>307.6251658525892</v>
       </c>
       <c r="AD2" t="n">
-        <v>209783.9758244393</v>
+        <v>248553.6919334766</v>
       </c>
       <c r="AE2" t="n">
-        <v>287035.6907386922</v>
+        <v>340082.1267182113</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.215190650001902e-06</v>
+        <v>5.743703457143041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.792534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>259641.407271798</v>
+        <v>307625.1658525892</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.0161358678275</v>
+        <v>186.1574285905343</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.836404157292</v>
+        <v>254.7088064835795</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.3327192693685</v>
+        <v>230.3997554789161</v>
       </c>
       <c r="AD3" t="n">
-        <v>157016.1358678275</v>
+        <v>186157.4285905343</v>
       </c>
       <c r="AE3" t="n">
-        <v>214836.404157292</v>
+        <v>254708.8064835795</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.788336393513022e-06</v>
+        <v>6.767586500734778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>194332.7192693685</v>
+        <v>230399.755478916</v>
       </c>
     </row>
   </sheetData>
